--- a/▼【１年生／テーマ『ワンボタン』／2024年度後期／ゲーム制作】_提出について/①試遊会に向けて/_▼【ゲーム制作／2024年度後期】オンライン試遊会_作品情報情報シート_ver1.xlsx
+++ b/▼【１年生／テーマ『ワンボタン』／2024年度後期／ゲーム制作】_提出について/①試遊会に向けて/_▼【ゲーム制作／2024年度後期】オンライン試遊会_作品情報情報シート_ver1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work_data\ゲーム制作プロジェクト\2_試遊会前\作品情報シート\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2240007\Documents\チーム制作\team02\▼【１年生／テーマ『ワンボタン』／2024年度後期／ゲーム制作】_提出について\①試遊会に向けて\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81005F7D-7BEE-4B70-971B-3FCDD8C0DC33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43A8A88F-A8A0-45DC-82CE-4AC10255EF13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11295" tabRatio="468" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="468" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="開発情報シート" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="67">
   <si>
     <t>チームNo</t>
     <phoneticPr fontId="1"/>
@@ -349,6 +349,168 @@
   </si>
   <si>
     <t>無し</t>
+  </si>
+  <si>
+    <t>BLASTAY</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GR!GA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GR1GA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>藤本響平</t>
+    <rPh sb="0" eb="2">
+      <t>フジモト</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キョウヘイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>丸毛温仁</t>
+    <rPh sb="0" eb="4">
+      <t>マルモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GR1SA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>岡本ますと</t>
+    <rPh sb="0" eb="5">
+      <t>オカモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GI1A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>西野正隆</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アート</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PG</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>授業ベース(ゲープロⅠ/Ⅱ:GameLib)</t>
+  </si>
+  <si>
+    <t>プレイヤーが投げた爆弾の爆風で移動しながら爆弾で敵をたおすゲーム
+プレイヤーはマウス左クリックでマウスカーソルに向かって爆弾を投げ、マウス左長押しで爆発範囲増加
+ワンクリックをマウスの左クリック操作のみでテーマを消化
+爆風で移動という少し難しい操作の中で敵の多い場所へアイテムを取りに行くスリル感、敵をまとめて倒す爽快感などがある</t>
+    <rPh sb="6" eb="7">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>バクダン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>バクフウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>バクダン</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>バクダン</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>ナガオ</t>
+    </rPh>
+    <rPh sb="74" eb="78">
+      <t>バクハツハンイ</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>ゾウカ</t>
+    </rPh>
+    <rPh sb="92" eb="93">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="97" eb="99">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="106" eb="108">
+      <t>ショウカ</t>
+    </rPh>
+    <rPh sb="109" eb="111">
+      <t>バクフウ</t>
+    </rPh>
+    <rPh sb="112" eb="114">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="117" eb="118">
+      <t>スコ</t>
+    </rPh>
+    <rPh sb="119" eb="120">
+      <t>ムズカ</t>
+    </rPh>
+    <rPh sb="122" eb="124">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="125" eb="126">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="127" eb="128">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="129" eb="130">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="131" eb="133">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="139" eb="140">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="142" eb="143">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="147" eb="148">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="149" eb="150">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="155" eb="156">
+      <t>タオ</t>
+    </rPh>
+    <rPh sb="157" eb="160">
+      <t>ソウカイカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1115,7 +1277,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1157,90 +1319,346 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="3" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" indent="3" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" indent="3" shrinkToFit="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" indent="3" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" indent="3" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" indent="3" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" indent="3" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" indent="3" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="44" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1255,270 +1673,8 @@
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" indent="3" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" indent="3" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" indent="3" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" indent="3" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" indent="3" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" indent="3" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" indent="3" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="44" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="3" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -2619,7 +2775,7 @@
   <dimension ref="A1:Y27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection activeCell="T35" sqref="T35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2636,24 +2792,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="I1" s="51" t="s">
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="I1" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="51"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="83"/>
+      <c r="O1" s="83"/>
       <c r="P1" s="13"/>
     </row>
     <row r="2" spans="1:25" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -2671,508 +2827,582 @@
       <c r="M2" s="15"/>
       <c r="N2" s="15"/>
       <c r="O2" s="15"/>
-      <c r="P2" s="16"/>
     </row>
     <row r="3" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="57"/>
-      <c r="I3" s="56" t="s">
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="44"/>
+      <c r="I3" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="57"/>
-      <c r="K3" s="42" t="s">
+      <c r="J3" s="44"/>
+      <c r="K3" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="80"/>
-      <c r="R3" s="80"/>
-      <c r="S3" s="80"/>
-      <c r="T3" s="80"/>
-      <c r="U3" s="80"/>
-      <c r="V3" s="80"/>
-      <c r="W3" s="80"/>
-      <c r="X3" s="80"/>
-      <c r="Y3" s="80"/>
+      <c r="L3" s="75"/>
+      <c r="M3" s="75"/>
+      <c r="N3" s="75"/>
+      <c r="O3" s="76"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="66"/>
+      <c r="R3" s="66"/>
+      <c r="S3" s="66"/>
+      <c r="T3" s="66"/>
+      <c r="U3" s="66"/>
+      <c r="V3" s="66"/>
+      <c r="W3" s="66"/>
+      <c r="X3" s="66"/>
+      <c r="Y3" s="66"/>
     </row>
     <row r="4" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="53"/>
-      <c r="B4" s="68"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="70"/>
-      <c r="I4" s="19" t="s">
+      <c r="A4" s="85">
+        <v>1117</v>
+      </c>
+      <c r="B4" s="94" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="96"/>
+      <c r="I4" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="29" t="s">
+      <c r="J4" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="29" t="s">
+      <c r="K4" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="L4" s="29" t="s">
+      <c r="L4" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="77" t="s">
+      <c r="M4" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="67"/>
-      <c r="O4" s="57"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="80"/>
-      <c r="R4" s="80"/>
-      <c r="S4" s="80"/>
-      <c r="T4" s="80"/>
-      <c r="U4" s="80"/>
-      <c r="V4" s="80"/>
-      <c r="W4" s="80"/>
-      <c r="X4" s="80"/>
-      <c r="Y4" s="80"/>
+      <c r="N4" s="81"/>
+      <c r="O4" s="44"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="66"/>
+      <c r="R4" s="66"/>
+      <c r="S4" s="66"/>
+      <c r="T4" s="66"/>
+      <c r="U4" s="66"/>
+      <c r="V4" s="66"/>
+      <c r="W4" s="66"/>
+      <c r="X4" s="66"/>
+      <c r="Y4" s="66"/>
     </row>
     <row r="5" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="54"/>
-      <c r="B5" s="71"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="73"/>
-      <c r="I5" s="108" t="s">
+      <c r="A5" s="86"/>
+      <c r="B5" s="97"/>
+      <c r="C5" s="98"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="98"/>
+      <c r="F5" s="98"/>
+      <c r="G5" s="99"/>
+      <c r="I5" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="J5" s="109" t="s">
+      <c r="J5" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="K5" s="109" t="s">
+      <c r="K5" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="109" t="s">
+      <c r="L5" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="M5" s="112" t="s">
+      <c r="M5" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="N5" s="110"/>
-      <c r="O5" s="111"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="79"/>
-      <c r="R5" s="79"/>
-      <c r="S5" s="79"/>
-      <c r="T5" s="79"/>
-      <c r="U5" s="79"/>
-      <c r="V5" s="79"/>
-      <c r="W5" s="79"/>
-      <c r="X5" s="79"/>
-      <c r="Y5" s="79"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="79"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="66"/>
+      <c r="R5" s="66"/>
+      <c r="S5" s="66"/>
+      <c r="T5" s="66"/>
+      <c r="U5" s="66"/>
+      <c r="V5" s="66"/>
+      <c r="W5" s="66"/>
+      <c r="X5" s="66"/>
+      <c r="Y5" s="66"/>
     </row>
     <row r="6" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="55"/>
-      <c r="B6" s="74"/>
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="76"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="81"/>
-      <c r="N6" s="81"/>
-      <c r="O6" s="82"/>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="80"/>
-      <c r="R6" s="80"/>
-      <c r="S6" s="80"/>
-      <c r="T6" s="80"/>
-      <c r="U6" s="80"/>
-      <c r="V6" s="80"/>
-      <c r="W6" s="80"/>
-      <c r="X6" s="80"/>
-      <c r="Y6" s="80"/>
+      <c r="A6" s="87"/>
+      <c r="B6" s="100"/>
+      <c r="C6" s="101"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="101"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="102"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="67"/>
+      <c r="N6" s="67"/>
+      <c r="O6" s="68"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="66"/>
+      <c r="R6" s="66"/>
+      <c r="S6" s="66"/>
+      <c r="T6" s="66"/>
+      <c r="U6" s="66"/>
+      <c r="V6" s="66"/>
+      <c r="W6" s="66"/>
+      <c r="X6" s="66"/>
+      <c r="Y6" s="66"/>
     </row>
     <row r="7" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="77" t="s">
+      <c r="B7" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="78"/>
-      <c r="D7" s="65" t="s">
+      <c r="C7" s="103"/>
+      <c r="D7" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="66"/>
-      <c r="F7" s="63" t="s">
+      <c r="E7" s="64"/>
+      <c r="F7" s="91" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="64"/>
+      <c r="G7" s="92"/>
       <c r="I7" s="7"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
-      <c r="M7" s="58"/>
-      <c r="N7" s="58"/>
-      <c r="O7" s="59"/>
-      <c r="P7" s="22"/>
+      <c r="M7" s="69"/>
+      <c r="N7" s="69"/>
+      <c r="O7" s="70"/>
+      <c r="P7" s="21"/>
     </row>
     <row r="8" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="32"/>
-      <c r="B8" s="93"/>
-      <c r="C8" s="94"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="62"/>
+      <c r="A8" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="46"/>
+      <c r="D8" s="88" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="89"/>
+      <c r="F8" s="89"/>
+      <c r="G8" s="90"/>
       <c r="I8" s="7"/>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
-      <c r="M8" s="58"/>
-      <c r="N8" s="58"/>
-      <c r="O8" s="59"/>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="28"/>
+      <c r="M8" s="69"/>
+      <c r="N8" s="69"/>
+      <c r="O8" s="70"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="27"/>
     </row>
     <row r="9" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="6"/>
-      <c r="B9" s="45"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="49"/>
+      <c r="A9" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="47" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="48"/>
+      <c r="D9" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="51"/>
       <c r="I9" s="7"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
-      <c r="M9" s="58"/>
-      <c r="N9" s="58"/>
-      <c r="O9" s="59"/>
-      <c r="P9" s="22"/>
+      <c r="M9" s="69"/>
+      <c r="N9" s="69"/>
+      <c r="O9" s="70"/>
+      <c r="P9" s="21"/>
     </row>
     <row r="10" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="6"/>
-      <c r="B10" s="45"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="49"/>
+      <c r="A10" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="47" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="48"/>
+      <c r="D10" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="51"/>
       <c r="I10" s="7"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
-      <c r="M10" s="58"/>
-      <c r="N10" s="58"/>
-      <c r="O10" s="59"/>
-      <c r="P10" s="22"/>
-      <c r="R10" s="23"/>
+      <c r="M10" s="69"/>
+      <c r="N10" s="69"/>
+      <c r="O10" s="70"/>
+      <c r="P10" s="21"/>
+      <c r="R10" s="22"/>
     </row>
     <row r="11" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="6"/>
-      <c r="B11" s="45"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="49"/>
+      <c r="A11" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="48"/>
+      <c r="D11" s="49" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="51"/>
       <c r="I11" s="7"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
-      <c r="M11" s="58"/>
-      <c r="N11" s="58"/>
-      <c r="O11" s="59"/>
-      <c r="P11" s="22"/>
+      <c r="M11" s="69"/>
+      <c r="N11" s="69"/>
+      <c r="O11" s="70"/>
+      <c r="P11" s="21"/>
     </row>
     <row r="12" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="6"/>
-      <c r="B12" s="45"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="49"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="51"/>
       <c r="I12" s="7"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
-      <c r="M12" s="58"/>
-      <c r="N12" s="58"/>
-      <c r="O12" s="59"/>
-      <c r="P12" s="22"/>
+      <c r="M12" s="69"/>
+      <c r="N12" s="69"/>
+      <c r="O12" s="70"/>
+      <c r="P12" s="21"/>
     </row>
     <row r="13" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A13" s="6"/>
-      <c r="B13" s="45"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="49"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="51"/>
       <c r="I13" s="10"/>
       <c r="J13" s="11"/>
       <c r="K13" s="11"/>
       <c r="L13" s="11"/>
-      <c r="M13" s="84"/>
-      <c r="N13" s="84"/>
-      <c r="O13" s="85"/>
-      <c r="P13" s="22"/>
+      <c r="M13" s="72"/>
+      <c r="N13" s="72"/>
+      <c r="O13" s="73"/>
+      <c r="P13" s="21"/>
     </row>
     <row r="14" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="34"/>
-      <c r="B14" s="45"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="49"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="83"/>
-      <c r="N14" s="83"/>
-      <c r="O14" s="83"/>
-      <c r="P14" s="22"/>
+      <c r="A14" s="33"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="51"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="71"/>
+      <c r="N14" s="71"/>
+      <c r="O14" s="71"/>
+      <c r="P14" s="21"/>
     </row>
     <row r="15" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="34"/>
-      <c r="B15" s="45"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="49"/>
-      <c r="I15" s="36" t="s">
+      <c r="A15" s="33"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="51"/>
+      <c r="I15" s="104" t="s">
         <v>33</v>
       </c>
-      <c r="J15" s="36"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="37" t="s">
+      <c r="J15" s="104"/>
+      <c r="K15" s="104"/>
+      <c r="L15" s="105" t="s">
         <v>47</v>
       </c>
-      <c r="M15" s="38"/>
-      <c r="N15" s="38"/>
-      <c r="O15" s="38"/>
+      <c r="M15" s="106"/>
+      <c r="N15" s="106"/>
+      <c r="O15" s="106"/>
       <c r="P15" s="13"/>
     </row>
     <row r="16" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="34"/>
-      <c r="B16" s="45"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="49"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="40"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="40"/>
-      <c r="N16" s="40"/>
-      <c r="O16" s="41"/>
-      <c r="P16" s="20"/>
+      <c r="A16" s="33"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="51"/>
+      <c r="I16" s="107"/>
+      <c r="J16" s="108"/>
+      <c r="K16" s="108"/>
+      <c r="L16" s="108"/>
+      <c r="M16" s="108"/>
+      <c r="N16" s="108"/>
+      <c r="O16" s="109"/>
+      <c r="P16" s="19"/>
     </row>
     <row r="17" spans="1:16" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="35"/>
-      <c r="B17" s="95"/>
-      <c r="C17" s="96"/>
-      <c r="D17" s="99"/>
-      <c r="E17" s="100"/>
-      <c r="F17" s="100"/>
-      <c r="G17" s="101"/>
+      <c r="A17" s="34"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="58"/>
     </row>
     <row r="18" spans="1:16" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="24"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="I18" s="52" t="s">
+      <c r="A18" s="23"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="I18" s="84" t="s">
         <v>46</v>
       </c>
-      <c r="J18" s="52"/>
-      <c r="K18" s="52"/>
-      <c r="L18" s="52"/>
-      <c r="M18" s="52"/>
-      <c r="N18" s="52"/>
-      <c r="O18" s="52"/>
+      <c r="J18" s="84"/>
+      <c r="K18" s="84"/>
+      <c r="L18" s="84"/>
+      <c r="M18" s="84"/>
+      <c r="N18" s="84"/>
+      <c r="O18" s="84"/>
       <c r="P18" s="13"/>
     </row>
     <row r="19" spans="1:16" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="56" t="s">
+      <c r="A19" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="57"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="97"/>
-      <c r="G19" s="98"/>
-      <c r="I19" s="56" t="s">
+      <c r="B19" s="44"/>
+      <c r="C19" s="74" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" s="75"/>
+      <c r="E19" s="76"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="55"/>
+      <c r="I19" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="J19" s="57"/>
-      <c r="K19" s="102"/>
-      <c r="L19" s="103"/>
-      <c r="M19" s="103"/>
-      <c r="N19" s="103"/>
-      <c r="O19" s="104"/>
-      <c r="P19" s="20"/>
+      <c r="J19" s="44"/>
+      <c r="K19" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="L19" s="60"/>
+      <c r="M19" s="60"/>
+      <c r="N19" s="60"/>
+      <c r="O19" s="61"/>
+      <c r="P19" s="19"/>
     </row>
     <row r="20" spans="1:16" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="21" spans="1:16" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="105" t="s">
+      <c r="A21" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="B21" s="106"/>
-      <c r="C21" s="106"/>
-      <c r="D21" s="106"/>
-      <c r="E21" s="106"/>
-      <c r="F21" s="106"/>
-      <c r="G21" s="106"/>
-      <c r="H21" s="106"/>
-      <c r="I21" s="106"/>
-      <c r="J21" s="106"/>
-      <c r="K21" s="66" t="s">
+      <c r="B21" s="63"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="63"/>
+      <c r="G21" s="63"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="63"/>
+      <c r="J21" s="63"/>
+      <c r="K21" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="L21" s="66"/>
-      <c r="M21" s="66"/>
-      <c r="N21" s="66"/>
-      <c r="O21" s="107"/>
-      <c r="P21" s="26"/>
+      <c r="L21" s="64"/>
+      <c r="M21" s="64"/>
+      <c r="N21" s="64"/>
+      <c r="O21" s="65"/>
+      <c r="P21" s="25"/>
     </row>
     <row r="22" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="86"/>
-      <c r="B22" s="87"/>
-      <c r="C22" s="87"/>
-      <c r="D22" s="87"/>
-      <c r="E22" s="87"/>
-      <c r="F22" s="87"/>
-      <c r="G22" s="87"/>
-      <c r="H22" s="87"/>
-      <c r="I22" s="87"/>
-      <c r="J22" s="87"/>
-      <c r="K22" s="87"/>
-      <c r="L22" s="87"/>
-      <c r="M22" s="87"/>
-      <c r="N22" s="87"/>
-      <c r="O22" s="88"/>
-      <c r="P22" s="27"/>
+      <c r="A22" s="110" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="37"/>
+      <c r="M22" s="37"/>
+      <c r="N22" s="37"/>
+      <c r="O22" s="38"/>
+      <c r="P22" s="26"/>
     </row>
     <row r="23" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="89"/>
-      <c r="B23" s="87"/>
-      <c r="C23" s="87"/>
-      <c r="D23" s="87"/>
-      <c r="E23" s="87"/>
-      <c r="F23" s="87"/>
-      <c r="G23" s="87"/>
-      <c r="H23" s="87"/>
-      <c r="I23" s="87"/>
-      <c r="J23" s="87"/>
-      <c r="K23" s="87"/>
-      <c r="L23" s="87"/>
-      <c r="M23" s="87"/>
-      <c r="N23" s="87"/>
-      <c r="O23" s="88"/>
-      <c r="P23" s="27"/>
+      <c r="A23" s="39"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="37"/>
+      <c r="J23" s="37"/>
+      <c r="K23" s="37"/>
+      <c r="L23" s="37"/>
+      <c r="M23" s="37"/>
+      <c r="N23" s="37"/>
+      <c r="O23" s="38"/>
+      <c r="P23" s="26"/>
     </row>
     <row r="24" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="89"/>
-      <c r="B24" s="87"/>
-      <c r="C24" s="87"/>
-      <c r="D24" s="87"/>
-      <c r="E24" s="87"/>
-      <c r="F24" s="87"/>
-      <c r="G24" s="87"/>
-      <c r="H24" s="87"/>
-      <c r="I24" s="87"/>
-      <c r="J24" s="87"/>
-      <c r="K24" s="87"/>
-      <c r="L24" s="87"/>
-      <c r="M24" s="87"/>
-      <c r="N24" s="87"/>
-      <c r="O24" s="88"/>
-      <c r="P24" s="27"/>
+      <c r="A24" s="39"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="37"/>
+      <c r="K24" s="37"/>
+      <c r="L24" s="37"/>
+      <c r="M24" s="37"/>
+      <c r="N24" s="37"/>
+      <c r="O24" s="38"/>
+      <c r="P24" s="26"/>
     </row>
     <row r="25" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="89"/>
-      <c r="B25" s="87"/>
-      <c r="C25" s="87"/>
-      <c r="D25" s="87"/>
-      <c r="E25" s="87"/>
-      <c r="F25" s="87"/>
-      <c r="G25" s="87"/>
-      <c r="H25" s="87"/>
-      <c r="I25" s="87"/>
-      <c r="J25" s="87"/>
-      <c r="K25" s="87"/>
-      <c r="L25" s="87"/>
-      <c r="M25" s="87"/>
-      <c r="N25" s="87"/>
-      <c r="O25" s="88"/>
-      <c r="P25" s="27"/>
+      <c r="A25" s="39"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="37"/>
+      <c r="K25" s="37"/>
+      <c r="L25" s="37"/>
+      <c r="M25" s="37"/>
+      <c r="N25" s="37"/>
+      <c r="O25" s="38"/>
+      <c r="P25" s="26"/>
     </row>
     <row r="26" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="89"/>
-      <c r="B26" s="87"/>
-      <c r="C26" s="87"/>
-      <c r="D26" s="87"/>
-      <c r="E26" s="87"/>
-      <c r="F26" s="87"/>
-      <c r="G26" s="87"/>
-      <c r="H26" s="87"/>
-      <c r="I26" s="87"/>
-      <c r="J26" s="87"/>
-      <c r="K26" s="87"/>
-      <c r="L26" s="87"/>
-      <c r="M26" s="87"/>
-      <c r="N26" s="87"/>
-      <c r="O26" s="88"/>
-      <c r="P26" s="27"/>
+      <c r="A26" s="39"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="37"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="37"/>
+      <c r="L26" s="37"/>
+      <c r="M26" s="37"/>
+      <c r="N26" s="37"/>
+      <c r="O26" s="38"/>
+      <c r="P26" s="26"/>
     </row>
     <row r="27" spans="1:16" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="90"/>
-      <c r="B27" s="91"/>
-      <c r="C27" s="91"/>
-      <c r="D27" s="91"/>
-      <c r="E27" s="91"/>
-      <c r="F27" s="91"/>
-      <c r="G27" s="91"/>
-      <c r="H27" s="91"/>
-      <c r="I27" s="91"/>
-      <c r="J27" s="91"/>
-      <c r="K27" s="91"/>
-      <c r="L27" s="91"/>
-      <c r="M27" s="91"/>
-      <c r="N27" s="91"/>
-      <c r="O27" s="92"/>
-      <c r="P27" s="27"/>
+      <c r="A27" s="40"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="41"/>
+      <c r="K27" s="41"/>
+      <c r="L27" s="41"/>
+      <c r="M27" s="41"/>
+      <c r="N27" s="41"/>
+      <c r="O27" s="42"/>
+      <c r="P27" s="26"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="mjSDXw4ayP3OFAtraPN26udqwFBQ6Xc38322fMdZy2CLmgb9cEt6tsTRpHEQWcG+K44aEgR3VD4Em2jfzUzN7A==" saltValue="nJHhgTgbu6jwnWGq9dZJyA==" spinCount="100000" sheet="1" formatCells="0"/>
   <dataConsolidate/>
   <mergeCells count="57">
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="L15:O15"/>
+    <mergeCell ref="I16:O16"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="I18:O18"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="Q5:Y5"/>
+    <mergeCell ref="Q4:Y4"/>
+    <mergeCell ref="Q3:Y3"/>
+    <mergeCell ref="K3:O3"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="Q6:Y6"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="M13:O13"/>
     <mergeCell ref="A22:O27"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="B8:C8"/>
@@ -3189,47 +3419,6 @@
     <mergeCell ref="K19:O19"/>
     <mergeCell ref="A21:J21"/>
     <mergeCell ref="K21:O21"/>
-    <mergeCell ref="Q6:Y6"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="M12:O12"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="Q5:Y5"/>
-    <mergeCell ref="Q4:Y4"/>
-    <mergeCell ref="Q3:Y3"/>
-    <mergeCell ref="K3:O3"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="I1:O1"/>
-    <mergeCell ref="I18:O18"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="L15:O15"/>
-    <mergeCell ref="I16:O16"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="D15:G15"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="F19:G19">

--- a/▼【１年生／テーマ『ワンボタン』／2024年度後期／ゲーム制作】_提出について/①試遊会に向けて/_▼【ゲーム制作／2024年度後期】オンライン試遊会_作品情報情報シート_ver1.xlsx
+++ b/▼【１年生／テーマ『ワンボタン』／2024年度後期／ゲーム制作】_提出について/①試遊会に向けて/_▼【ゲーム制作／2024年度後期】オンライン試遊会_作品情報情報シート_ver1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2240007\Documents\チーム制作\team02\▼【１年生／テーマ『ワンボタン』／2024年度後期／ゲーム制作】_提出について\①試遊会に向けて\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43A8A88F-A8A0-45DC-82CE-4AC10255EF13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23467CBA-D15C-4FCC-8F7A-F4FC3B9C29BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="468" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="68">
   <si>
     <t>チームNo</t>
     <phoneticPr fontId="1"/>
@@ -355,10 +355,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>GR!GA</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>GR1GA</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -510,6 +506,14 @@
     <rPh sb="157" eb="160">
       <t>ソウカイカン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メインPG</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ディレクター　アートD　PG　</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1401,6 +1405,201 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="44" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="3" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" indent="3" shrinkToFit="1"/>
       <protection locked="0"/>
@@ -1425,38 +1624,12 @@
       <alignment horizontal="left" vertical="top" indent="3" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1505,177 +1678,8 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="44" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="3" shrinkToFit="1"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2775,7 +2779,7 @@
   <dimension ref="A1:Y27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="T35" sqref="T35"/>
+      <selection activeCell="Z16" sqref="Z16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2792,24 +2796,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="I1" s="83" t="s">
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="I1" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="83"/>
-      <c r="O1" s="83"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
       <c r="P1" s="13"/>
     </row>
     <row r="2" spans="1:25" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -2832,48 +2836,48 @@
       <c r="A3" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="44"/>
-      <c r="I3" s="43" t="s">
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="58"/>
+      <c r="I3" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="44"/>
-      <c r="K3" s="74" t="s">
+      <c r="J3" s="58"/>
+      <c r="K3" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="L3" s="75"/>
-      <c r="M3" s="75"/>
-      <c r="N3" s="75"/>
-      <c r="O3" s="76"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="45"/>
       <c r="P3" s="17"/>
-      <c r="Q3" s="66"/>
-      <c r="R3" s="66"/>
-      <c r="S3" s="66"/>
-      <c r="T3" s="66"/>
-      <c r="U3" s="66"/>
-      <c r="V3" s="66"/>
-      <c r="W3" s="66"/>
-      <c r="X3" s="66"/>
-      <c r="Y3" s="66"/>
+      <c r="Q3" s="80"/>
+      <c r="R3" s="80"/>
+      <c r="S3" s="80"/>
+      <c r="T3" s="80"/>
+      <c r="U3" s="80"/>
+      <c r="V3" s="80"/>
+      <c r="W3" s="80"/>
+      <c r="X3" s="80"/>
+      <c r="Y3" s="80"/>
     </row>
     <row r="4" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="85">
+      <c r="A4" s="54">
         <v>1117</v>
       </c>
-      <c r="B4" s="94" t="s">
+      <c r="B4" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="95"/>
-      <c r="F4" s="95"/>
-      <c r="G4" s="96"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="71"/>
       <c r="I4" s="18" t="s">
         <v>5</v>
       </c>
@@ -2886,30 +2890,30 @@
       <c r="L4" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="80" t="s">
+      <c r="M4" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="81"/>
-      <c r="O4" s="44"/>
+      <c r="N4" s="68"/>
+      <c r="O4" s="58"/>
       <c r="P4" s="17"/>
-      <c r="Q4" s="66"/>
-      <c r="R4" s="66"/>
-      <c r="S4" s="66"/>
-      <c r="T4" s="66"/>
-      <c r="U4" s="66"/>
-      <c r="V4" s="66"/>
-      <c r="W4" s="66"/>
-      <c r="X4" s="66"/>
-      <c r="Y4" s="66"/>
+      <c r="Q4" s="80"/>
+      <c r="R4" s="80"/>
+      <c r="S4" s="80"/>
+      <c r="T4" s="80"/>
+      <c r="U4" s="80"/>
+      <c r="V4" s="80"/>
+      <c r="W4" s="80"/>
+      <c r="X4" s="80"/>
+      <c r="Y4" s="80"/>
     </row>
     <row r="5" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="86"/>
-      <c r="B5" s="97"/>
-      <c r="C5" s="98"/>
-      <c r="D5" s="98"/>
-      <c r="E5" s="98"/>
-      <c r="F5" s="98"/>
-      <c r="G5" s="99"/>
+      <c r="A5" s="55"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="74"/>
       <c r="I5" s="35" t="s">
         <v>51</v>
       </c>
@@ -2922,264 +2926,264 @@
       <c r="L5" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="M5" s="77" t="s">
+      <c r="M5" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="N5" s="78"/>
-      <c r="O5" s="79"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="83"/>
       <c r="P5" s="19"/>
-      <c r="Q5" s="66"/>
-      <c r="R5" s="66"/>
-      <c r="S5" s="66"/>
-      <c r="T5" s="66"/>
-      <c r="U5" s="66"/>
-      <c r="V5" s="66"/>
-      <c r="W5" s="66"/>
-      <c r="X5" s="66"/>
-      <c r="Y5" s="66"/>
+      <c r="Q5" s="80"/>
+      <c r="R5" s="80"/>
+      <c r="S5" s="80"/>
+      <c r="T5" s="80"/>
+      <c r="U5" s="80"/>
+      <c r="V5" s="80"/>
+      <c r="W5" s="80"/>
+      <c r="X5" s="80"/>
+      <c r="Y5" s="80"/>
     </row>
     <row r="6" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="87"/>
-      <c r="B6" s="100"/>
-      <c r="C6" s="101"/>
-      <c r="D6" s="101"/>
-      <c r="E6" s="101"/>
-      <c r="F6" s="101"/>
-      <c r="G6" s="102"/>
+      <c r="A6" s="56"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="77"/>
       <c r="I6" s="29"/>
       <c r="J6" s="30"/>
       <c r="K6" s="30"/>
       <c r="L6" s="30"/>
-      <c r="M6" s="67"/>
-      <c r="N6" s="67"/>
-      <c r="O6" s="68"/>
+      <c r="M6" s="84"/>
+      <c r="N6" s="84"/>
+      <c r="O6" s="85"/>
       <c r="P6" s="20"/>
-      <c r="Q6" s="66"/>
-      <c r="R6" s="66"/>
-      <c r="S6" s="66"/>
-      <c r="T6" s="66"/>
-      <c r="U6" s="66"/>
-      <c r="V6" s="66"/>
-      <c r="W6" s="66"/>
-      <c r="X6" s="66"/>
-      <c r="Y6" s="66"/>
+      <c r="Q6" s="80"/>
+      <c r="R6" s="80"/>
+      <c r="S6" s="80"/>
+      <c r="T6" s="80"/>
+      <c r="U6" s="80"/>
+      <c r="V6" s="80"/>
+      <c r="W6" s="80"/>
+      <c r="X6" s="80"/>
+      <c r="Y6" s="80"/>
     </row>
     <row r="7" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="80" t="s">
+      <c r="B7" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="103"/>
-      <c r="D7" s="93" t="s">
+      <c r="C7" s="79"/>
+      <c r="D7" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="64"/>
-      <c r="F7" s="91" t="s">
+      <c r="E7" s="67"/>
+      <c r="F7" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="92"/>
+      <c r="G7" s="65"/>
       <c r="I7" s="7"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
-      <c r="M7" s="69"/>
-      <c r="N7" s="69"/>
-      <c r="O7" s="70"/>
+      <c r="M7" s="59"/>
+      <c r="N7" s="59"/>
+      <c r="O7" s="60"/>
       <c r="P7" s="21"/>
     </row>
     <row r="8" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="45" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" s="46"/>
-      <c r="D8" s="88" t="s">
-        <v>64</v>
-      </c>
-      <c r="E8" s="89"/>
-      <c r="F8" s="89"/>
-      <c r="G8" s="90"/>
+      <c r="B8" s="96" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="97"/>
+      <c r="D8" s="61" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="63"/>
       <c r="I8" s="7"/>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
-      <c r="M8" s="69"/>
-      <c r="N8" s="69"/>
-      <c r="O8" s="70"/>
+      <c r="M8" s="59"/>
+      <c r="N8" s="59"/>
+      <c r="O8" s="60"/>
       <c r="P8" s="21"/>
       <c r="Q8" s="27"/>
     </row>
     <row r="9" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B9" s="47" t="s">
-        <v>58</v>
-      </c>
-      <c r="C9" s="48"/>
-      <c r="D9" s="49" t="s">
-        <v>64</v>
-      </c>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="51"/>
+        <v>55</v>
+      </c>
+      <c r="B9" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="47"/>
+      <c r="D9" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="50"/>
       <c r="I9" s="7"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
-      <c r="M9" s="69"/>
-      <c r="N9" s="69"/>
-      <c r="O9" s="70"/>
+      <c r="M9" s="59"/>
+      <c r="N9" s="59"/>
+      <c r="O9" s="60"/>
       <c r="P9" s="21"/>
     </row>
     <row r="10" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="B10" s="47" t="s">
-        <v>60</v>
-      </c>
-      <c r="C10" s="48"/>
-      <c r="D10" s="49" t="s">
-        <v>64</v>
-      </c>
-      <c r="E10" s="50"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="51"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="50"/>
       <c r="I10" s="7"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
-      <c r="M10" s="69"/>
-      <c r="N10" s="69"/>
-      <c r="O10" s="70"/>
+      <c r="M10" s="59"/>
+      <c r="N10" s="59"/>
+      <c r="O10" s="60"/>
       <c r="P10" s="21"/>
       <c r="R10" s="22"/>
     </row>
     <row r="11" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="B11" s="47" t="s">
+      <c r="C11" s="47"/>
+      <c r="D11" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="C11" s="48"/>
-      <c r="D11" s="49" t="s">
-        <v>63</v>
-      </c>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="51"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="50"/>
       <c r="I11" s="7"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
-      <c r="M11" s="69"/>
-      <c r="N11" s="69"/>
-      <c r="O11" s="70"/>
+      <c r="M11" s="59"/>
+      <c r="N11" s="59"/>
+      <c r="O11" s="60"/>
       <c r="P11" s="21"/>
     </row>
     <row r="12" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="6"/>
-      <c r="B12" s="47"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="51"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="50"/>
       <c r="I12" s="7"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
-      <c r="M12" s="69"/>
-      <c r="N12" s="69"/>
-      <c r="O12" s="70"/>
+      <c r="M12" s="59"/>
+      <c r="N12" s="59"/>
+      <c r="O12" s="60"/>
       <c r="P12" s="21"/>
     </row>
     <row r="13" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A13" s="6"/>
-      <c r="B13" s="47"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="51"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="50"/>
       <c r="I13" s="10"/>
       <c r="J13" s="11"/>
       <c r="K13" s="11"/>
       <c r="L13" s="11"/>
-      <c r="M13" s="72"/>
-      <c r="N13" s="72"/>
-      <c r="O13" s="73"/>
+      <c r="M13" s="87"/>
+      <c r="N13" s="87"/>
+      <c r="O13" s="88"/>
       <c r="P13" s="21"/>
     </row>
     <row r="14" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="33"/>
-      <c r="B14" s="47"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="51"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="50"/>
       <c r="I14" s="21"/>
       <c r="J14" s="21"/>
       <c r="K14" s="21"/>
       <c r="L14" s="21"/>
-      <c r="M14" s="71"/>
-      <c r="N14" s="71"/>
-      <c r="O14" s="71"/>
+      <c r="M14" s="86"/>
+      <c r="N14" s="86"/>
+      <c r="O14" s="86"/>
       <c r="P14" s="21"/>
     </row>
     <row r="15" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A15" s="33"/>
-      <c r="B15" s="47"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="51"/>
-      <c r="I15" s="104" t="s">
+      <c r="B15" s="46"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="50"/>
+      <c r="I15" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="J15" s="104"/>
-      <c r="K15" s="104"/>
-      <c r="L15" s="105" t="s">
+      <c r="J15" s="37"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="M15" s="106"/>
-      <c r="N15" s="106"/>
-      <c r="O15" s="106"/>
+      <c r="M15" s="39"/>
+      <c r="N15" s="39"/>
+      <c r="O15" s="39"/>
       <c r="P15" s="13"/>
     </row>
     <row r="16" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A16" s="33"/>
-      <c r="B16" s="47"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="51"/>
-      <c r="I16" s="107"/>
-      <c r="J16" s="108"/>
-      <c r="K16" s="108"/>
-      <c r="L16" s="108"/>
-      <c r="M16" s="108"/>
-      <c r="N16" s="108"/>
-      <c r="O16" s="109"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="50"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="41"/>
+      <c r="L16" s="41"/>
+      <c r="M16" s="41"/>
+      <c r="N16" s="41"/>
+      <c r="O16" s="42"/>
       <c r="P16" s="19"/>
     </row>
     <row r="17" spans="1:16" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A17" s="34"/>
-      <c r="B17" s="52"/>
-      <c r="C17" s="53"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="58"/>
+      <c r="B17" s="98"/>
+      <c r="C17" s="99"/>
+      <c r="D17" s="102"/>
+      <c r="E17" s="103"/>
+      <c r="F17" s="103"/>
+      <c r="G17" s="104"/>
     </row>
     <row r="18" spans="1:16" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="23"/>
@@ -3189,189 +3193,210 @@
       <c r="E18" s="24"/>
       <c r="F18" s="24"/>
       <c r="G18" s="24"/>
-      <c r="I18" s="84" t="s">
+      <c r="I18" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="J18" s="84"/>
-      <c r="K18" s="84"/>
-      <c r="L18" s="84"/>
-      <c r="M18" s="84"/>
-      <c r="N18" s="84"/>
-      <c r="O18" s="84"/>
+      <c r="J18" s="53"/>
+      <c r="K18" s="53"/>
+      <c r="L18" s="53"/>
+      <c r="M18" s="53"/>
+      <c r="N18" s="53"/>
+      <c r="O18" s="53"/>
       <c r="P18" s="13"/>
     </row>
     <row r="19" spans="1:16" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="43" t="s">
+      <c r="A19" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="44"/>
-      <c r="C19" s="74" t="s">
-        <v>65</v>
-      </c>
-      <c r="D19" s="75"/>
-      <c r="E19" s="76"/>
-      <c r="F19" s="54"/>
-      <c r="G19" s="55"/>
-      <c r="I19" s="43" t="s">
+      <c r="B19" s="58"/>
+      <c r="C19" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="44"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="100"/>
+      <c r="G19" s="101"/>
+      <c r="I19" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="J19" s="44"/>
-      <c r="K19" s="59" t="s">
+      <c r="J19" s="58"/>
+      <c r="K19" s="105" t="s">
         <v>30</v>
       </c>
-      <c r="L19" s="60"/>
-      <c r="M19" s="60"/>
-      <c r="N19" s="60"/>
-      <c r="O19" s="61"/>
+      <c r="L19" s="106"/>
+      <c r="M19" s="106"/>
+      <c r="N19" s="106"/>
+      <c r="O19" s="107"/>
       <c r="P19" s="19"/>
     </row>
     <row r="20" spans="1:16" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="21" spans="1:16" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="62" t="s">
+      <c r="A21" s="108" t="s">
         <v>52</v>
       </c>
-      <c r="B21" s="63"/>
-      <c r="C21" s="63"/>
-      <c r="D21" s="63"/>
-      <c r="E21" s="63"/>
-      <c r="F21" s="63"/>
-      <c r="G21" s="63"/>
-      <c r="H21" s="63"/>
-      <c r="I21" s="63"/>
-      <c r="J21" s="63"/>
-      <c r="K21" s="64" t="s">
+      <c r="B21" s="109"/>
+      <c r="C21" s="109"/>
+      <c r="D21" s="109"/>
+      <c r="E21" s="109"/>
+      <c r="F21" s="109"/>
+      <c r="G21" s="109"/>
+      <c r="H21" s="109"/>
+      <c r="I21" s="109"/>
+      <c r="J21" s="109"/>
+      <c r="K21" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="L21" s="64"/>
-      <c r="M21" s="64"/>
-      <c r="N21" s="64"/>
-      <c r="O21" s="65"/>
+      <c r="L21" s="67"/>
+      <c r="M21" s="67"/>
+      <c r="N21" s="67"/>
+      <c r="O21" s="110"/>
       <c r="P21" s="25"/>
     </row>
     <row r="22" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="110" t="s">
-        <v>66</v>
-      </c>
-      <c r="B22" s="37"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="37"/>
-      <c r="K22" s="37"/>
-      <c r="L22" s="37"/>
-      <c r="M22" s="37"/>
-      <c r="N22" s="37"/>
-      <c r="O22" s="38"/>
+      <c r="A22" s="89" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" s="90"/>
+      <c r="C22" s="90"/>
+      <c r="D22" s="90"/>
+      <c r="E22" s="90"/>
+      <c r="F22" s="90"/>
+      <c r="G22" s="90"/>
+      <c r="H22" s="90"/>
+      <c r="I22" s="90"/>
+      <c r="J22" s="90"/>
+      <c r="K22" s="90"/>
+      <c r="L22" s="90"/>
+      <c r="M22" s="90"/>
+      <c r="N22" s="90"/>
+      <c r="O22" s="91"/>
       <c r="P22" s="26"/>
     </row>
     <row r="23" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="39"/>
-      <c r="B23" s="37"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="37"/>
-      <c r="J23" s="37"/>
-      <c r="K23" s="37"/>
-      <c r="L23" s="37"/>
-      <c r="M23" s="37"/>
-      <c r="N23" s="37"/>
-      <c r="O23" s="38"/>
+      <c r="A23" s="92"/>
+      <c r="B23" s="90"/>
+      <c r="C23" s="90"/>
+      <c r="D23" s="90"/>
+      <c r="E23" s="90"/>
+      <c r="F23" s="90"/>
+      <c r="G23" s="90"/>
+      <c r="H23" s="90"/>
+      <c r="I23" s="90"/>
+      <c r="J23" s="90"/>
+      <c r="K23" s="90"/>
+      <c r="L23" s="90"/>
+      <c r="M23" s="90"/>
+      <c r="N23" s="90"/>
+      <c r="O23" s="91"/>
       <c r="P23" s="26"/>
     </row>
     <row r="24" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="39"/>
-      <c r="B24" s="37"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="37"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="37"/>
-      <c r="K24" s="37"/>
-      <c r="L24" s="37"/>
-      <c r="M24" s="37"/>
-      <c r="N24" s="37"/>
-      <c r="O24" s="38"/>
+      <c r="A24" s="92"/>
+      <c r="B24" s="90"/>
+      <c r="C24" s="90"/>
+      <c r="D24" s="90"/>
+      <c r="E24" s="90"/>
+      <c r="F24" s="90"/>
+      <c r="G24" s="90"/>
+      <c r="H24" s="90"/>
+      <c r="I24" s="90"/>
+      <c r="J24" s="90"/>
+      <c r="K24" s="90"/>
+      <c r="L24" s="90"/>
+      <c r="M24" s="90"/>
+      <c r="N24" s="90"/>
+      <c r="O24" s="91"/>
       <c r="P24" s="26"/>
     </row>
     <row r="25" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="39"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="37"/>
-      <c r="I25" s="37"/>
-      <c r="J25" s="37"/>
-      <c r="K25" s="37"/>
-      <c r="L25" s="37"/>
-      <c r="M25" s="37"/>
-      <c r="N25" s="37"/>
-      <c r="O25" s="38"/>
+      <c r="A25" s="92"/>
+      <c r="B25" s="90"/>
+      <c r="C25" s="90"/>
+      <c r="D25" s="90"/>
+      <c r="E25" s="90"/>
+      <c r="F25" s="90"/>
+      <c r="G25" s="90"/>
+      <c r="H25" s="90"/>
+      <c r="I25" s="90"/>
+      <c r="J25" s="90"/>
+      <c r="K25" s="90"/>
+      <c r="L25" s="90"/>
+      <c r="M25" s="90"/>
+      <c r="N25" s="90"/>
+      <c r="O25" s="91"/>
       <c r="P25" s="26"/>
     </row>
     <row r="26" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="39"/>
-      <c r="B26" s="37"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="37"/>
-      <c r="I26" s="37"/>
-      <c r="J26" s="37"/>
-      <c r="K26" s="37"/>
-      <c r="L26" s="37"/>
-      <c r="M26" s="37"/>
-      <c r="N26" s="37"/>
-      <c r="O26" s="38"/>
+      <c r="A26" s="92"/>
+      <c r="B26" s="90"/>
+      <c r="C26" s="90"/>
+      <c r="D26" s="90"/>
+      <c r="E26" s="90"/>
+      <c r="F26" s="90"/>
+      <c r="G26" s="90"/>
+      <c r="H26" s="90"/>
+      <c r="I26" s="90"/>
+      <c r="J26" s="90"/>
+      <c r="K26" s="90"/>
+      <c r="L26" s="90"/>
+      <c r="M26" s="90"/>
+      <c r="N26" s="90"/>
+      <c r="O26" s="91"/>
       <c r="P26" s="26"/>
     </row>
     <row r="27" spans="1:16" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="40"/>
-      <c r="B27" s="41"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="41"/>
-      <c r="I27" s="41"/>
-      <c r="J27" s="41"/>
-      <c r="K27" s="41"/>
-      <c r="L27" s="41"/>
-      <c r="M27" s="41"/>
-      <c r="N27" s="41"/>
-      <c r="O27" s="42"/>
+      <c r="A27" s="93"/>
+      <c r="B27" s="94"/>
+      <c r="C27" s="94"/>
+      <c r="D27" s="94"/>
+      <c r="E27" s="94"/>
+      <c r="F27" s="94"/>
+      <c r="G27" s="94"/>
+      <c r="H27" s="94"/>
+      <c r="I27" s="94"/>
+      <c r="J27" s="94"/>
+      <c r="K27" s="94"/>
+      <c r="L27" s="94"/>
+      <c r="M27" s="94"/>
+      <c r="N27" s="94"/>
+      <c r="O27" s="95"/>
       <c r="P27" s="26"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="mjSDXw4ayP3OFAtraPN26udqwFBQ6Xc38322fMdZy2CLmgb9cEt6tsTRpHEQWcG+K44aEgR3VD4Em2jfzUzN7A==" saltValue="nJHhgTgbu6jwnWGq9dZJyA==" spinCount="100000" sheet="1" formatCells="0"/>
   <dataConsolidate/>
   <mergeCells count="57">
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="L15:O15"/>
-    <mergeCell ref="I16:O16"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="A22:O27"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K19:O19"/>
+    <mergeCell ref="A21:J21"/>
+    <mergeCell ref="K21:O21"/>
+    <mergeCell ref="Q6:Y6"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="Q5:Y5"/>
+    <mergeCell ref="Q4:Y4"/>
+    <mergeCell ref="Q3:Y3"/>
+    <mergeCell ref="K3:O3"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="M4:O4"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="I1:O1"/>
     <mergeCell ref="I18:O18"/>
@@ -3388,37 +3413,16 @@
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="B4:G6"/>
     <mergeCell ref="B7:C7"/>
-    <mergeCell ref="Q5:Y5"/>
-    <mergeCell ref="Q4:Y4"/>
-    <mergeCell ref="Q3:Y3"/>
-    <mergeCell ref="K3:O3"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="Q6:Y6"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="M12:O12"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="A22:O27"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="K19:O19"/>
-    <mergeCell ref="A21:J21"/>
-    <mergeCell ref="K21:O21"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="L15:O15"/>
+    <mergeCell ref="I16:O16"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="D15:G15"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="F19:G19">
